--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,49 +436,79 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Week 1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Favorite Food</t>
+          <t>Week 2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Week 3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sum</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Average or Mean</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Pizza</t>
-        </is>
+      <c r="A2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B2" t="n">
+        <v>56</v>
+      </c>
+      <c r="C2" t="n">
+        <v>89</v>
+      </c>
+      <c r="D2" t="n">
+        <v>135</v>
+      </c>
+      <c r="E2" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Joe</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ice Cream</t>
-        </is>
+      <c r="A3" t="n">
+        <v>67</v>
+      </c>
+      <c r="B3" t="n">
+        <v>34</v>
+      </c>
+      <c r="C3" t="n">
+        <v>78</v>
+      </c>
+      <c r="D3" t="n">
+        <v>157</v>
+      </c>
+      <c r="E3" t="n">
+        <v>52.33333333333334</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Alice</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mango</t>
-        </is>
+      <c r="A4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B4" t="n">
+        <v>67</v>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>201</v>
+      </c>
+      <c r="E4" t="n">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
